--- a/koboforms/How Many Markers.xlsx
+++ b/koboforms/How Many Markers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deo/anticipatoryactiondecisions/koboforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dasdoresngueussiengamini/working/AA_projets/general/aadecisionoverviewFR/koboforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755B3430-1D86-BA41-AB5A-1483E1667A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BAE4FD-0988-5948-A0C7-4D7F6B53B99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1780" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
+    <workbookView xWindow="2200" yWindow="1000" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -63,119 +63,119 @@
     <t>version</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>q0</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>How Many Markers FR</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Votre adresse e‑mail</t>
+  </si>
+  <si>
+    <t>Combien de jetons rouges mettriez‑vous dans le chapeau pour refléter la Règle 1 ?</t>
+  </si>
+  <si>
+    <t>Combien de jetons bleus mettriez‑vous dans le chapeau pour refléter la Règle 1 ?</t>
+  </si>
+  <si>
+    <t>Combien de jetons rouges mettriez‑vous dans le chapeau pour refléter la Règle 2 ?</t>
+  </si>
+  <si>
+    <t>Combien de jetons bleus mettriez‑vous dans le chapeau pour refléter la Règle 2 ?</t>
+  </si>
+  <si>
+    <t>Pour la Règle 1, mettez le bon nombre de jetons rouges et bleus dans le chapeau. Tirez un jeton du chapeau 5 fois, en notant la couleur tirée à chaque fois, puis remettez‑le. Combien de jetons rouges ont été tirés ?</t>
+  </si>
+  <si>
+    <t>Combien de jetons rouges seraient tirés en moyenne ?</t>
+  </si>
+  <si>
+    <t>Le nombre de jetons rouges tirés lors de vos 5 tirages est‑il exactement égal à ce qu’il devrait être en moyenne ?</t>
+  </si>
+  <si>
+    <t>Est‑il possible que le nombre de jetons rouges tirés soit différent de ce que l’on attendrait en moyenne ?</t>
+  </si>
+  <si>
+    <t>« Qu’est‑ce que cela signifie pour notre utilisation de seulement 5 années afin de déterminer la fréquence d’action ?</t>
+  </si>
+  <si>
+    <t>Existe‑t‑il des moyens de remédier aux problèmes soulevés dans la question précédente ?</t>
+  </si>
+  <si>
+    <t>Doit‑on être prudent lorsque l’on dispose de jeux de données courts ?</t>
+  </si>
+  <si>
+    <t>howmanymarkersFR</t>
+  </si>
+  <si>
     <t>v1</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>Your email</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>multiline</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>q0</t>
-  </si>
-  <si>
-    <t>How many red markers would be drawn on average?</t>
-  </si>
-  <si>
-    <t>Is the number of red markers drawn in your 5 draws exactly equal to what it should be on average?</t>
-  </si>
-  <si>
-    <t>Is it possible for the number of red markers drawn to be different than what you would expect on average?</t>
-  </si>
-  <si>
-    <t>What does this mean  in terms of our use of only 5 years to determine the action frequency?</t>
-  </si>
-  <si>
-    <t>Are there things that could be done to address any issues from the question above?</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q7</t>
-  </si>
-  <si>
-    <t>q8</t>
-  </si>
-  <si>
-    <t>q9</t>
-  </si>
-  <si>
-    <t>q10</t>
-  </si>
-  <si>
-    <t>Do we need to be careful when we have short datasets?</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>How many red markers would you put in the hat to reflect Rule 1?</t>
-  </si>
-  <si>
-    <t>How many blue markers would you put in the hat to reflect Rule 1?</t>
-  </si>
-  <si>
-    <t>How many red markers would you put in the hat to reflect Rule 2?</t>
-  </si>
-  <si>
-    <t>How many blue markers would you put in the hat to reflect Rule 2?</t>
-  </si>
-  <si>
-    <t>For rule 1, put the right number of red and blue markers into the hat. Draw a marker out of the hat 5 times, counting which color was drawn, and then replacing it.  How many red markers were drawn?</t>
-  </si>
-  <si>
-    <t>How Many Markers</t>
-  </si>
-  <si>
-    <t>howmanymarkers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +209,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -563,7 +569,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,10 +588,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -593,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -607,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -621,10 +627,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -635,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -649,10 +655,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -663,10 +669,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -677,24 +683,24 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -705,30 +711,30 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -736,27 +742,27 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -772,14 +778,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -790,24 +796,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -817,15 +823,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF2FC2-2B0D-0B42-899E-2C094C966549}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,19 +841,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>